--- a/laba1.xlsx
+++ b/laba1.xlsx
@@ -3,15 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AB3756-68A3-49BB-9DAB-EFB528D798B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC59EB8-C8B2-438F-B218-5195B45A218D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание1" sheetId="1" r:id="rId1"/>
     <sheet name="Задание 3" sheetId="2" r:id="rId2"/>
-    <sheet name="Задание 4" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание 16" sheetId="3" r:id="rId3"/>
     <sheet name="Задание 5" sheetId="4" r:id="rId4"/>
+    <sheet name="Задание6" sheetId="5" r:id="rId5"/>
+    <sheet name="Задание 7" sheetId="6" r:id="rId6"/>
+    <sheet name="Задание 9" sheetId="7" r:id="rId7"/>
+    <sheet name="Задание14" sheetId="8" r:id="rId8"/>
+    <sheet name="Ответы" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Пусть на испытания поставлено пятьсот образцов однотипных элементов, при испытании отказавшие элементы не заменялись исправными. За время t отказало двадцать элементов. Определите вероятность безотказной работы элемента за время t.</t>
   </si>
@@ -53,9 +58,6 @@
   </si>
   <si>
     <t>λ(t)=Δn(t)/Δt*n(t)</t>
-  </si>
-  <si>
-    <t>Определить вероятность безотказной работы и интенсивность отказов прибора при t = 1300 ч работы, если при испытаниях получено значение среднего времени безотказной работы mt 1500 ч и среднее квадратичное отклонение t 100 ч. Требуется вычислить количественные характеристики надежности p(t), f(t), λ(t) для t = 150 ч и среднее время безотказной работы элемента.</t>
   </si>
   <si>
     <t>t=</t>
@@ -85,18 +87,206 @@
   <si>
     <t>f(3000)=Δn(t)/N*Δt</t>
   </si>
+  <si>
+    <t>На испытание поставлено шесть однотипных изделий. Получены следующие значения ti (ti – время безотказной работы i-го изделия): t1 = 280 ч; t2 = 350 ч; t3 = 400 ч;
+t4 = 320 ч; t5 = 380 ч; t6 = 330 ч.
+Определить
+*
+mt
+– статистическую оценку среднего времени безотказной работы изделия</t>
+  </si>
+  <si>
+    <t>t1=</t>
+  </si>
+  <si>
+    <t>t2=</t>
+  </si>
+  <si>
+    <t>t3=</t>
+  </si>
+  <si>
+    <t>t4=</t>
+  </si>
+  <si>
+    <t>t5=</t>
+  </si>
+  <si>
+    <t>t6=</t>
+  </si>
+  <si>
+    <t>m1=сумма m / N=</t>
+  </si>
+  <si>
+    <t>На испытание поставлено 8 однотипных изделий. Получены следующие значения ti
+(ti – время безотказной работы i-го изделия): t1 = 560 ч; t2 = 700 ч; t3 = 800 ч;
+t4 = 650 ч; t5 = 580 ч; t6 = 760 ч; t7 = 920 ч; t8 = 850 ч.
+Определить статистическую оценку среднего времени безотказной работы изделия.</t>
+  </si>
+  <si>
+    <t>t7=</t>
+  </si>
+  <si>
+    <t>t8=</t>
+  </si>
+  <si>
+    <t>Вероятность безотказной работы автоматической линии изготовления элемента в
+течение 120 ч равна 0,9. Предполагается, что справедлив экспоненциальный закон надежности. Требуется рассчитать интенсивность отказов и частоту отказов линии для момента времени t = 120 ч, а также среднее время безотказной работы.</t>
+  </si>
+  <si>
+    <t>P=</t>
+  </si>
+  <si>
+    <t>λ=</t>
+  </si>
+  <si>
+    <t>f(t)=</t>
+  </si>
+  <si>
+    <t>m(t)=</t>
+  </si>
+  <si>
+    <t>На испытание поставлено 5 невосстанавливаемых изделий. Первое проработало 215 час., второе – 250 час, третье – 280 час, четвертое – 230 час, пятое – 202 час. Определить среднюю наработку до отказа.</t>
+  </si>
+  <si>
+    <t>m1=</t>
+  </si>
+  <si>
+    <t>Определить среднее время безотказной работы 10 элементов системы, если время
+непрерывной работы каждой из них составило</t>
+  </si>
+  <si>
+    <t>t9=</t>
+  </si>
+  <si>
+    <t>t10=</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>ГОСТ 27.002—2015</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>свойство объекта сохранять во времени способность выполнять требуемые функции в заданных режимах и условиях применения, технического обслуживания, хранения и транспортировки</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>безотказности, долговечности, ремонтопригодности и сохраняемости</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>безотказность, долговечность, ремонтопригодность, сохраняемость</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>состояние объекта, при котором значения параметров, характеризующих его способность выполнять заданную функцию, соответствуют требованиям нормативной документации</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>Остановка механизма вследствие порчи</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <r>
+      <t>объект</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, для которого в рассматриваемой ситуации проведение восстановления работоспособного состояния не предусмотрено в нормативно-технической и (или) в конструкторской документации</t>
+    </r>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t>Типа отказа, причина отказа, последствия отказа</t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>средний ресурс, средний срок службы, назначенный срок службы</t>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>метод мат. Ожидания, вероятность безотказной работы, время восстановления после отказа, вероятность отказа, интенсивность отказов</t>
+  </si>
+  <si>
+    <t>11)</t>
+  </si>
+  <si>
+    <t>Безотказная работы - p(t)=n(t)/N</t>
+  </si>
+  <si>
+    <t>частота отказов - f(t)=Δn(t)/N*Δt</t>
+  </si>
+  <si>
+    <t>12)</t>
+  </si>
+  <si>
+    <t>P(p)=(λt)^p*e^(-λ*t)/p!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,11 +309,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -139,6 +332,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>334272</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83182C6E-4CF1-46A0-B9BA-1516A1B2CE62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1143000"/>
+          <a:ext cx="6430272" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,7 +649,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,61 +660,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -520,61 +762,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -636,88 +878,177 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00A4DFC-AE28-4CD5-BFBA-B607C4B873A6}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1300</v>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <f>(B12+B13+B14+B15+B16+B17+B18+B19+B20+B21)/10</f>
+        <v>1008.4</v>
       </c>
     </row>
   </sheetData>
@@ -725,6 +1056,7 @@
     <mergeCell ref="A1:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -732,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C71A129-8B07-4950-9E38-CAEFBBC123F7}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -742,246 +1074,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1001,7 +1333,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <f>B18/B17</f>
@@ -1026,7 +1358,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <f>B20/B21</f>
@@ -1043,7 +1375,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -1051,7 +1383,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <f>B23/(B17*B24)</f>
@@ -1073,4 +1405,714 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE6DF83-9097-4B72-9E65-CE20F11B60F3}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <f>(B12+B13+B14+B15+B16+B17)/B11</f>
+        <v>343.33333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F3380E-B209-4E14-A640-703409C950AA}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <f>(B9+B10+B11+B12+B13+B14+B16+B15)/B8</f>
+        <v>727.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAF444B-F44A-4935-941E-0E5F31EB2FBF}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <f>8.8*0.0001</f>
+        <v>8.8000000000000014E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <f>B9*B7</f>
+        <v>7.9200000000000017E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <f>1/B9</f>
+        <v>1136.3636363636363</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F19824-6E58-450A-A182-43B82C3C3D6A}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <f>(B10+B12+B11+B13+B14)/B9</f>
+        <v>235.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B521D2D7-119C-45AC-9A34-FD8DF10F5A2E}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>